--- a/data/countries/dominican_republic.xlsx
+++ b/data/countries/dominican_republic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1D2520-7953-2147-A45F-0BF8719E4826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4090B94-3835-1E43-A344-B5D37A892ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32500" yWindow="700" windowWidth="18360" windowHeight="26520" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>General</t>
   </si>
@@ -85,9 +93,6 @@
     <t>covid19_deaths</t>
   </si>
   <si>
-    <t>2020-2021 (yearly)</t>
-  </si>
-  <si>
     <t>covid19_mortality</t>
   </si>
   <si>
@@ -97,9 +102,6 @@
     <t>covid19_cases, covid19_deaths, covid19_mortality</t>
   </si>
   <si>
-    <t>Half-complete</t>
-  </si>
-  <si>
     <t>Spending</t>
   </si>
   <si>
@@ -146,6 +148,15 @@
   </si>
   <si>
     <t>Total spending converted from billions USD to USD (2010-2019 is estimated)</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -244,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -275,6 +286,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,7 +608,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -622,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -631,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -646,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -654,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -662,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -697,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -705,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -713,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -721,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -729,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -737,18 +751,18 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -756,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -764,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -772,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -780,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -788,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +818,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,16 +831,16 @@
         <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>17</v>
@@ -835,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,7 +1179,31 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="15"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>236762</v>
+      </c>
+      <c r="G14">
+        <v>137</v>
+      </c>
+      <c r="H14">
+        <f>G14/F14</f>
+        <v>5.7864015340299544E-4</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="15"/>
